--- a/src/excel/cosponsor.xlsx
+++ b/src/excel/cosponsor.xlsx
@@ -3425,12 +3425,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3466,13 +3466,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3487,52 +3515,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3547,9 +3530,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3562,7 +3561,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3576,33 +3591,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3635,7 +3628,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3647,7 +3670,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,163 +3808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3966,17 +3959,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3996,11 +3992,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4034,182 +4056,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4633,8 +4626,8 @@
   <sheetPr/>
   <dimension ref="A1:C2029"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A1178" workbookViewId="0">
+      <selection activeCell="C1186" sqref="C1186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -4712,101 +4705,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="14.4" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="14.4" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="14.4" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="14.4" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="14.4" spans="1:3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14.4" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" ht="14.4" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="14.4" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" ht="14.4" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" ht="14.4" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" ht="14.4" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="14.4" spans="1:3">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="14.4" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" ht="14.4" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="14.4" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" ht="14.4" spans="1:3">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" ht="14.4" spans="1:3">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" ht="14.4" spans="1:3">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" ht="14.4" spans="1:3">
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
@@ -4817,159 +4810,159 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" ht="14.4" spans="1:3">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" ht="14.4" spans="1:3">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" ht="14.4" spans="1:3">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" ht="14.4" spans="1:3">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" ht="14.4" spans="1:3">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" ht="14.4" spans="1:3">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" ht="14.4" spans="1:3">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" ht="14.4" spans="1:3">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="14.4" spans="1:3">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" ht="14.4" spans="1:3">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" ht="14.4" spans="1:3">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" ht="14.4" spans="1:3">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" ht="14.4" spans="1:3">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" ht="14.4" spans="1:3">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" ht="14.4" spans="1:3">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" ht="14.4" spans="1:3">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" ht="14.4" spans="1:3">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" ht="14.4" spans="1:3">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" ht="14.4" spans="1:3">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" ht="14.4" spans="1:3">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" ht="14.4" spans="1:3">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" ht="14.4" spans="1:3">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" ht="14.4" spans="1:3">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" ht="14.4" spans="1:3">
       <c r="A50" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" ht="14.4" spans="1:3">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" ht="14.4" spans="1:3">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" ht="14.4" spans="1:3">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" ht="14.4" spans="1:3">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" ht="14.4" spans="1:3">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" ht="14.4" spans="1:3">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" ht="14.4" spans="1:3">
       <c r="A57" s="7" t="s">
         <v>20</v>
       </c>
@@ -4980,12 +4973,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" ht="14.4" spans="1:3">
       <c r="A58" s="7"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" ht="14.4" spans="1:3">
       <c r="A59" s="7"/>
       <c r="B59" s="9" t="s">
         <v>23</v>
@@ -4994,12 +4987,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" ht="14.4" spans="1:3">
       <c r="A60" s="7"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" ht="14.4" spans="1:3">
       <c r="A61" s="7"/>
       <c r="B61" s="9" t="s">
         <v>24</v>
@@ -5008,12 +5001,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" ht="14.4" spans="1:3">
       <c r="A62" s="7"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" ht="14.4" spans="1:3">
       <c r="A63" s="7"/>
       <c r="B63" s="9" t="s">
         <v>25</v>
@@ -5022,12 +5015,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" ht="14.4" spans="1:3">
       <c r="A64" s="7"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" ht="14.4" spans="1:3">
       <c r="A65" s="7"/>
       <c r="B65" s="9" t="s">
         <v>26</v>
@@ -5036,12 +5029,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" ht="14.4" spans="1:3">
       <c r="A66" s="7"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" ht="14.4" spans="1:3">
       <c r="A67" s="7"/>
       <c r="B67" s="9" t="s">
         <v>27</v>
@@ -5050,12 +5043,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" ht="14.4" spans="1:3">
       <c r="A68" s="7"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" ht="14.4" spans="1:3">
       <c r="A69" s="7"/>
       <c r="B69" s="9" t="s">
         <v>28</v>
@@ -5064,12 +5057,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" ht="14.4" spans="1:3">
       <c r="A70" s="7"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" ht="14.4" spans="1:3">
       <c r="A71" s="7"/>
       <c r="B71" s="9" t="s">
         <v>30</v>
@@ -5078,12 +5071,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" ht="14.4" spans="1:3">
       <c r="A72" s="7"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" ht="14.4" spans="1:3">
       <c r="A73" s="7" t="s">
         <v>31</v>
       </c>
@@ -5094,42 +5087,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" ht="14.4" spans="1:3">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" ht="14.4" spans="1:3">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" ht="14.4" spans="1:3">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" ht="14.4" spans="1:3">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" ht="14.4" spans="1:3">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" ht="14.4" spans="1:3">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" ht="14.4" spans="1:3">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" ht="14.4" spans="1:3">
       <c r="A81" s="7"/>
       <c r="B81" s="8" t="s">
         <v>34</v>
@@ -5138,42 +5131,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" ht="14.4" spans="1:3">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" ht="14.4" spans="1:3">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" ht="14.4" spans="1:3">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" ht="14.4" spans="1:3">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" ht="14.4" spans="1:3">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" ht="14.4" spans="1:3">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" ht="14.4" spans="1:3">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="14.4" spans="1:3">
       <c r="A89" s="7"/>
       <c r="B89" s="8" t="s">
         <v>35</v>
@@ -5182,171 +5175,171 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" ht="14.4" spans="1:3">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" ht="14.4" spans="1:3">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" ht="14.4" spans="1:3">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" ht="14.4" spans="1:3">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" ht="14.4" spans="1:3">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" ht="14.4" spans="1:3">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" ht="14.4" spans="1:3">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" ht="14.4" spans="1:3">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" ht="14.4" spans="1:3">
       <c r="A98" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" ht="14.4" spans="1:3">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="14.4" spans="1:3">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" ht="14.4" spans="1:3">
       <c r="A101" s="7"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" ht="14.4" spans="1:3">
       <c r="A102" s="7"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" ht="14.4" spans="1:3">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" ht="14.4" spans="1:3">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" ht="14.4" spans="1:3">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" ht="14.4" spans="1:3">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" ht="14.4" spans="1:3">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" ht="14.4" spans="1:3">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" ht="14.4" spans="1:3">
       <c r="A109" s="7"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" ht="14.4" spans="1:3">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" ht="14.4" spans="1:3">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" ht="14.4" spans="1:3">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" ht="14.4" spans="1:3">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" ht="14.4" spans="1:3">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" ht="14.4" spans="1:3">
       <c r="A115" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" ht="14.4" spans="1:3">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" ht="14.4" spans="1:3">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" ht="14.4" spans="1:3">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" ht="14.4" spans="1:3">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" ht="14.4" spans="1:3">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" ht="14.4" spans="1:3">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" ht="14.4" spans="1:3">
       <c r="A122" s="7" t="s">
         <v>39</v>
       </c>
@@ -5357,27 +5350,27 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" ht="14.4" spans="1:3">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" ht="14.4" spans="1:3">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" ht="14.4" spans="1:3">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" ht="14.4" spans="1:3">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" ht="14.4" spans="1:3">
       <c r="A127" s="7"/>
       <c r="B127" s="8" t="s">
         <v>42</v>
@@ -5386,27 +5379,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" ht="14.4" spans="1:3">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" ht="14.4" spans="1:3">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" ht="14.4" spans="1:3">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" ht="14.4" spans="1:3">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" ht="14.4" spans="1:3">
       <c r="A132" s="7"/>
       <c r="B132" s="8" t="s">
         <v>44</v>
@@ -5415,27 +5408,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" ht="14.4" spans="1:3">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" ht="14.4" spans="1:3">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" ht="14.4" spans="1:3">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" ht="14.4" spans="1:3">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" ht="14.4" spans="1:3">
       <c r="A137" s="7"/>
       <c r="B137" s="8" t="s">
         <v>46</v>
@@ -5444,54 +5437,54 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" ht="14.4" spans="1:3">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" ht="14.4" spans="1:3">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" ht="14.4" spans="1:3">
       <c r="A140" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" ht="14.4" spans="1:3">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" ht="14.4" spans="1:3">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" ht="14.4" spans="1:3">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" ht="14.4" spans="1:3">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" ht="14.4" spans="1:3">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" ht="14.4" spans="1:3">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" ht="14.4" spans="1:3">
       <c r="A147" s="7" t="s">
         <v>48</v>
       </c>
@@ -5502,17 +5495,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" ht="14.4" spans="1:3">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" ht="14.4" spans="1:3">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" ht="14.4" spans="1:3">
       <c r="A150" s="7"/>
       <c r="B150" s="8" t="s">
         <v>51</v>
@@ -5521,17 +5514,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" ht="14.4" spans="1:3">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" ht="14.4" spans="1:3">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" ht="14.4" spans="1:3">
       <c r="A153" s="7"/>
       <c r="B153" s="8" t="s">
         <v>53</v>
@@ -5540,12 +5533,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" ht="14.4" spans="1:3">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" ht="14.4" spans="1:3">
       <c r="A155" s="7" t="s">
         <v>55</v>
       </c>
@@ -5556,12 +5549,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" ht="14.4" spans="1:3">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" ht="14.4" spans="1:3">
       <c r="A157" s="7"/>
       <c r="B157" s="8" t="s">
         <v>57</v>
@@ -5570,17 +5563,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" ht="14.4" spans="1:3">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" ht="14.4" spans="1:3">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" ht="14.4" spans="1:3">
       <c r="A160" s="7"/>
       <c r="B160" s="8" t="s">
         <v>59</v>
@@ -5589,44 +5582,44 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" ht="14.4" spans="1:3">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" ht="14.4" spans="1:3">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" ht="14.4" spans="1:3">
       <c r="A163" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" ht="14.4" spans="1:3">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" ht="14.4" spans="1:3">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" ht="14.4" spans="1:3">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" ht="14.4" spans="1:3">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" ht="14.4" spans="1:3">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -5975,39 +5968,39 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" ht="14.4" spans="1:3">
       <c r="A207" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" ht="14.4" spans="1:3">
       <c r="A208" s="7"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" ht="14.4" spans="1:3">
       <c r="A209" s="7"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" ht="14.4" spans="1:3">
       <c r="A210" s="7"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" ht="14.4" spans="1:3">
       <c r="A211" s="7"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" ht="14.4" spans="1:3">
       <c r="A212" s="7"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" ht="14.4" spans="1:3">
       <c r="A213" s="7" t="s">
         <v>105</v>
       </c>
@@ -6018,17 +6011,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" ht="14.4" spans="1:3">
       <c r="A214" s="7"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" ht="14.4" spans="1:3">
       <c r="A215" s="7"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" ht="14.4" spans="1:3">
       <c r="A216" s="7"/>
       <c r="B216" s="8" t="s">
         <v>108</v>
@@ -6037,17 +6030,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" ht="14.4" spans="1:3">
       <c r="A217" s="7"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" ht="14.4" spans="1:3">
       <c r="A218" s="7"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" ht="14.4" spans="1:3">
       <c r="A219" s="7"/>
       <c r="B219" s="8" t="s">
         <v>109</v>
@@ -6056,17 +6049,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" ht="14.4" spans="1:3">
       <c r="A220" s="7"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" ht="14.4" spans="1:3">
       <c r="A221" s="7"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" ht="14.4" spans="1:3">
       <c r="A222" s="7" t="s">
         <v>110</v>
       </c>
@@ -6077,42 +6070,42 @@
         <v>111</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" ht="14.4" spans="1:3">
       <c r="A223" s="7"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" ht="14.4" spans="1:3">
       <c r="A224" s="7"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" ht="14.4" spans="1:3">
       <c r="A225" s="7"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" ht="14.4" spans="1:3">
       <c r="A226" s="7"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" ht="14.4" spans="1:3">
       <c r="A227" s="7"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" ht="14.4" spans="1:3">
       <c r="A228" s="7"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" ht="14.4" spans="1:3">
       <c r="A229" s="7"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" ht="14.4" spans="1:3">
       <c r="A230" s="7"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -6452,7 +6445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" ht="14.4" spans="1:3">
       <c r="A268" s="7" t="s">
         <v>145</v>
       </c>
@@ -6463,12 +6456,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" ht="14.4" spans="1:3">
       <c r="A269" s="7"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" ht="14.4" spans="1:3">
       <c r="A270" s="7"/>
       <c r="B270" s="9" t="s">
         <v>148</v>
@@ -6477,12 +6470,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" ht="14.4" spans="1:3">
       <c r="A271" s="7"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" ht="14.4" spans="1:3">
       <c r="A272" s="7"/>
       <c r="B272" s="9" t="s">
         <v>150</v>
@@ -6491,12 +6484,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" ht="14.4" spans="1:3">
       <c r="A273" s="7"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" ht="14.4" spans="1:3">
       <c r="A274" s="7"/>
       <c r="B274" s="9" t="s">
         <v>75</v>
@@ -6505,12 +6498,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" ht="14.4" spans="1:3">
       <c r="A275" s="7"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" ht="14.4" spans="1:3">
       <c r="A276" s="7"/>
       <c r="B276" s="9" t="s">
         <v>151</v>
@@ -6519,12 +6512,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" ht="14.4" spans="1:3">
       <c r="A277" s="7"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" ht="14.4" spans="1:3">
       <c r="A278" s="7"/>
       <c r="B278" s="9" t="s">
         <v>152</v>
@@ -6533,12 +6526,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" ht="14.4" spans="1:3">
       <c r="A279" s="7"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" ht="14.4" spans="1:3">
       <c r="A280" s="7"/>
       <c r="B280" s="9" t="s">
         <v>153</v>
@@ -6547,12 +6540,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" ht="14.4" spans="1:3">
       <c r="A281" s="7"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" ht="14.4" spans="1:3">
       <c r="A282" s="7"/>
       <c r="B282" s="9" t="s">
         <v>154</v>
@@ -6561,12 +6554,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" ht="14.4" spans="1:3">
       <c r="A283" s="7"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" ht="14.4" spans="1:3">
       <c r="A284" s="7"/>
       <c r="B284" s="8" t="s">
         <v>113</v>
@@ -6575,12 +6568,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" ht="14.4" spans="1:3">
       <c r="A285" s="7"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" ht="14.4" spans="1:3">
       <c r="A286" s="7"/>
       <c r="B286" s="8" t="s">
         <v>155</v>
@@ -6589,12 +6582,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" ht="14.4" spans="1:3">
       <c r="A287" s="7"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" ht="14.4" spans="1:3">
       <c r="A288" s="7"/>
       <c r="B288" s="8" t="s">
         <v>156</v>
@@ -6603,12 +6596,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" ht="14.4" spans="1:3">
       <c r="A289" s="7"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" ht="14.4" spans="1:3">
       <c r="A290" s="7"/>
       <c r="B290" s="8" t="s">
         <v>53</v>
@@ -6617,12 +6610,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" ht="14.4" spans="1:3">
       <c r="A291" s="7"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" ht="14.4" spans="1:3">
       <c r="A292" s="7"/>
       <c r="B292" s="8" t="s">
         <v>157</v>
@@ -6631,12 +6624,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" ht="14.4" spans="1:3">
       <c r="A293" s="7"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" ht="14.4" spans="1:3">
       <c r="A294" s="7"/>
       <c r="B294" s="8" t="s">
         <v>158</v>
@@ -6645,12 +6638,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" ht="14.4" spans="1:3">
       <c r="A295" s="7"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" ht="14.4" spans="1:3">
       <c r="A296" s="7"/>
       <c r="B296" s="8" t="s">
         <v>159</v>
@@ -6659,7 +6652,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" ht="14.4" spans="1:3">
       <c r="A297" s="7"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -6790,7 +6783,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" ht="14.4" spans="1:3">
       <c r="A312" s="7" t="s">
         <v>181</v>
       </c>
@@ -6801,12 +6794,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" ht="14.4" spans="1:3">
       <c r="A313" s="7"/>
       <c r="B313" s="8"/>
       <c r="C313" s="8"/>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" ht="14.4" spans="1:3">
       <c r="A314" s="7"/>
       <c r="B314" s="8" t="s">
         <v>183</v>
@@ -6815,12 +6808,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" ht="14.4" spans="1:3">
       <c r="A315" s="7"/>
       <c r="B315" s="8"/>
       <c r="C315" s="8"/>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" ht="14.4" spans="1:3">
       <c r="A316" s="7"/>
       <c r="B316" s="8" t="s">
         <v>153</v>
@@ -6829,12 +6822,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" ht="14.4" spans="1:3">
       <c r="A317" s="7"/>
       <c r="B317" s="8"/>
       <c r="C317" s="8"/>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" ht="14.4" spans="1:3">
       <c r="A318" s="7"/>
       <c r="B318" s="8" t="s">
         <v>184</v>
@@ -6843,12 +6836,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" ht="14.4" spans="1:3">
       <c r="A319" s="7"/>
       <c r="B319" s="8"/>
       <c r="C319" s="8"/>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" ht="14.4" spans="1:3">
       <c r="A320" s="7"/>
       <c r="B320" s="8" t="s">
         <v>185</v>
@@ -6857,12 +6850,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="321" spans="1:3">
+    <row r="321" ht="14.4" spans="1:3">
       <c r="A321" s="7"/>
       <c r="B321" s="8"/>
       <c r="C321" s="8"/>
     </row>
-    <row r="322" spans="1:3">
+    <row r="322" ht="14.4" spans="1:3">
       <c r="A322" s="7"/>
       <c r="B322" s="8" t="s">
         <v>186</v>
@@ -6871,12 +6864,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
+    <row r="323" ht="14.4" spans="1:3">
       <c r="A323" s="7"/>
       <c r="B323" s="8"/>
       <c r="C323" s="8"/>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" ht="14.4" spans="1:3">
       <c r="A324" s="7"/>
       <c r="B324" s="8" t="s">
         <v>187</v>
@@ -6885,12 +6878,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
+    <row r="325" ht="14.4" spans="1:3">
       <c r="A325" s="7"/>
       <c r="B325" s="8"/>
       <c r="C325" s="8"/>
     </row>
-    <row r="326" spans="1:3">
+    <row r="326" ht="14.4" spans="1:3">
       <c r="A326" s="7"/>
       <c r="B326" s="8" t="s">
         <v>188</v>
@@ -6899,12 +6892,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
+    <row r="327" ht="14.4" spans="1:3">
       <c r="A327" s="7"/>
       <c r="B327" s="8"/>
       <c r="C327" s="8"/>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" ht="14.4" spans="1:3">
       <c r="A328" s="7"/>
       <c r="B328" s="8" t="s">
         <v>130</v>
@@ -6913,12 +6906,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" ht="14.4" spans="1:3">
       <c r="A329" s="7"/>
       <c r="B329" s="8"/>
       <c r="C329" s="8"/>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" ht="14.4" spans="1:3">
       <c r="A330" s="7"/>
       <c r="B330" s="8" t="s">
         <v>190</v>
@@ -6927,12 +6920,12 @@
         <v>189</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" ht="14.4" spans="1:3">
       <c r="A331" s="7"/>
       <c r="B331" s="8"/>
       <c r="C331" s="8"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" ht="14.4" spans="1:3">
       <c r="A332" s="7"/>
       <c r="B332" s="8" t="s">
         <v>116</v>
@@ -6941,7 +6934,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" ht="14.4" spans="1:3">
       <c r="A333" s="7"/>
       <c r="B333" s="8"/>
       <c r="C333" s="8"/>
@@ -6964,7 +6957,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" ht="14.4" spans="1:3">
       <c r="A336" s="7" t="s">
         <v>195</v>
       </c>
@@ -6975,12 +6968,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
+    <row r="337" ht="14.4" spans="1:3">
       <c r="A337" s="7"/>
       <c r="B337" s="8"/>
       <c r="C337" s="8"/>
     </row>
-    <row r="338" spans="1:3">
+    <row r="338" ht="14.4" spans="1:3">
       <c r="A338" s="7"/>
       <c r="B338" s="8" t="s">
         <v>40</v>
@@ -6989,12 +6982,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" ht="14.4" spans="1:3">
       <c r="A339" s="7"/>
       <c r="B339" s="8"/>
       <c r="C339" s="8"/>
     </row>
-    <row r="340" spans="1:3">
+    <row r="340" ht="14.4" spans="1:3">
       <c r="A340" s="7"/>
       <c r="B340" s="8" t="s">
         <v>198</v>
@@ -7003,7 +6996,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
+    <row r="341" ht="14.4" spans="1:3">
       <c r="A341" s="7"/>
       <c r="B341" s="8"/>
       <c r="C341" s="8"/>
@@ -7026,171 +7019,171 @@
         <v>197</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
+    <row r="344" ht="14.4" spans="1:3">
       <c r="A344" s="7" t="s">
         <v>201</v>
       </c>
       <c r="B344" s="8"/>
       <c r="C344" s="8"/>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" ht="14.4" spans="1:3">
       <c r="A345" s="7"/>
       <c r="B345" s="8"/>
       <c r="C345" s="8"/>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" ht="14.4" spans="1:3">
       <c r="A346" s="7"/>
       <c r="B346" s="8"/>
       <c r="C346" s="8"/>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" ht="14.4" spans="1:3">
       <c r="A347" s="7"/>
       <c r="B347" s="8"/>
       <c r="C347" s="8"/>
     </row>
-    <row r="348" spans="1:3">
+    <row r="348" ht="14.4" spans="1:3">
       <c r="A348" s="7"/>
       <c r="B348" s="8"/>
       <c r="C348" s="8"/>
     </row>
-    <row r="349" spans="1:3">
+    <row r="349" ht="14.4" spans="1:3">
       <c r="A349" s="7"/>
       <c r="B349" s="8"/>
       <c r="C349" s="8"/>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" ht="14.4" spans="1:3">
       <c r="A350" s="7"/>
       <c r="B350" s="8"/>
       <c r="C350" s="8"/>
     </row>
-    <row r="351" spans="1:3">
+    <row r="351" ht="14.4" spans="1:3">
       <c r="A351" s="7"/>
       <c r="B351" s="8"/>
       <c r="C351" s="8"/>
     </row>
-    <row r="352" spans="1:3">
+    <row r="352" ht="14.4" spans="1:3">
       <c r="A352" s="7"/>
       <c r="B352" s="8"/>
       <c r="C352" s="8"/>
     </row>
-    <row r="353" spans="1:3">
+    <row r="353" ht="14.4" spans="1:3">
       <c r="A353" s="7"/>
       <c r="B353" s="8"/>
       <c r="C353" s="8"/>
     </row>
-    <row r="354" spans="1:3">
+    <row r="354" ht="14.4" spans="1:3">
       <c r="A354" s="7"/>
       <c r="B354" s="8"/>
       <c r="C354" s="8"/>
     </row>
-    <row r="355" spans="1:3">
+    <row r="355" ht="14.4" spans="1:3">
       <c r="A355" s="7"/>
       <c r="B355" s="8"/>
       <c r="C355" s="8"/>
     </row>
-    <row r="356" spans="1:3">
+    <row r="356" ht="14.4" spans="1:3">
       <c r="A356" s="7"/>
       <c r="B356" s="8"/>
       <c r="C356" s="8"/>
     </row>
-    <row r="357" spans="1:3">
+    <row r="357" ht="14.4" spans="1:3">
       <c r="A357" s="7"/>
       <c r="B357" s="8"/>
       <c r="C357" s="8"/>
     </row>
-    <row r="358" spans="1:3">
+    <row r="358" ht="14.4" spans="1:3">
       <c r="A358" s="7"/>
       <c r="B358" s="8"/>
       <c r="C358" s="8"/>
     </row>
-    <row r="359" spans="1:3">
+    <row r="359" ht="14.4" spans="1:3">
       <c r="A359" s="7"/>
       <c r="B359" s="8"/>
       <c r="C359" s="8"/>
     </row>
-    <row r="360" spans="1:3">
+    <row r="360" ht="14.4" spans="1:3">
       <c r="A360" s="7"/>
       <c r="B360" s="8"/>
       <c r="C360" s="8"/>
     </row>
-    <row r="361" spans="1:3">
+    <row r="361" ht="14.4" spans="1:3">
       <c r="A361" s="7"/>
       <c r="B361" s="8"/>
       <c r="C361" s="8"/>
     </row>
-    <row r="362" spans="1:3">
+    <row r="362" ht="14.4" spans="1:3">
       <c r="A362" s="7"/>
       <c r="B362" s="8"/>
       <c r="C362" s="8"/>
     </row>
-    <row r="363" spans="1:3">
+    <row r="363" ht="14.4" spans="1:3">
       <c r="A363" s="7"/>
       <c r="B363" s="8"/>
       <c r="C363" s="8"/>
     </row>
-    <row r="364" spans="1:3">
+    <row r="364" ht="14.4" spans="1:3">
       <c r="A364" s="7"/>
       <c r="B364" s="8"/>
       <c r="C364" s="8"/>
     </row>
-    <row r="365" spans="1:3">
+    <row r="365" ht="14.4" spans="1:3">
       <c r="A365" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B365" s="8"/>
       <c r="C365" s="8"/>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" ht="14.4" spans="1:3">
       <c r="A366" s="7"/>
       <c r="B366" s="8"/>
       <c r="C366" s="8"/>
     </row>
-    <row r="367" spans="1:3">
+    <row r="367" ht="14.4" spans="1:3">
       <c r="A367" s="7"/>
       <c r="B367" s="8"/>
       <c r="C367" s="8"/>
     </row>
-    <row r="368" spans="1:3">
+    <row r="368" ht="14.4" spans="1:3">
       <c r="A368" s="7"/>
       <c r="B368" s="8"/>
       <c r="C368" s="8"/>
     </row>
-    <row r="369" spans="1:3">
+    <row r="369" ht="14.4" spans="1:3">
       <c r="A369" s="7"/>
       <c r="B369" s="8"/>
       <c r="C369" s="8"/>
     </row>
-    <row r="370" spans="1:3">
+    <row r="370" ht="14.4" spans="1:3">
       <c r="A370" s="7"/>
       <c r="B370" s="8"/>
       <c r="C370" s="8"/>
     </row>
-    <row r="371" spans="1:3">
+    <row r="371" ht="14.4" spans="1:3">
       <c r="A371" s="7"/>
       <c r="B371" s="8"/>
       <c r="C371" s="8"/>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" ht="14.4" spans="1:3">
       <c r="A372" s="7"/>
       <c r="B372" s="8"/>
       <c r="C372" s="8"/>
     </row>
-    <row r="373" spans="1:3">
+    <row r="373" ht="14.4" spans="1:3">
       <c r="A373" s="7"/>
       <c r="B373" s="8"/>
       <c r="C373" s="8"/>
     </row>
-    <row r="374" spans="1:3">
+    <row r="374" ht="14.4" spans="1:3">
       <c r="A374" s="7"/>
       <c r="B374" s="8"/>
       <c r="C374" s="8"/>
     </row>
-    <row r="375" spans="1:3">
+    <row r="375" ht="14.4" spans="1:3">
       <c r="A375" s="7"/>
       <c r="B375" s="8"/>
       <c r="C375" s="8"/>
     </row>
-    <row r="376" spans="1:3">
+    <row r="376" ht="14.4" spans="1:3">
       <c r="A376" s="7" t="s">
         <v>203</v>
       </c>
@@ -7201,7 +7194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
+    <row r="377" ht="14.4" spans="1:3">
       <c r="A377" s="7"/>
       <c r="B377" s="8"/>
       <c r="C377" s="8"/>
@@ -7278,24 +7271,24 @@
         <v>211</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
+    <row r="386" ht="14.4" spans="1:3">
       <c r="A386" s="7" t="s">
         <v>214</v>
       </c>
       <c r="B386" s="8"/>
       <c r="C386" s="8"/>
     </row>
-    <row r="387" spans="1:3">
+    <row r="387" ht="14.4" spans="1:3">
       <c r="A387" s="7"/>
       <c r="B387" s="8"/>
       <c r="C387" s="8"/>
     </row>
-    <row r="388" spans="1:3">
+    <row r="388" ht="14.4" spans="1:3">
       <c r="A388" s="7"/>
       <c r="B388" s="8"/>
       <c r="C388" s="8"/>
     </row>
-    <row r="389" spans="1:3">
+    <row r="389" ht="14.4" spans="1:3">
       <c r="A389" s="7" t="s">
         <v>215</v>
       </c>
@@ -7306,17 +7299,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
+    <row r="390" ht="14.4" spans="1:3">
       <c r="A390" s="7"/>
       <c r="B390" s="8"/>
       <c r="C390" s="8"/>
     </row>
-    <row r="391" spans="1:3">
+    <row r="391" ht="14.4" spans="1:3">
       <c r="A391" s="7"/>
       <c r="B391" s="8"/>
       <c r="C391" s="8"/>
     </row>
-    <row r="392" spans="1:3">
+    <row r="392" ht="14.4" spans="1:3">
       <c r="A392" s="7"/>
       <c r="B392" s="8" t="s">
         <v>113</v>
@@ -7325,17 +7318,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
+    <row r="393" ht="14.4" spans="1:3">
       <c r="A393" s="7"/>
       <c r="B393" s="8"/>
       <c r="C393" s="8"/>
     </row>
-    <row r="394" spans="1:3">
+    <row r="394" ht="14.4" spans="1:3">
       <c r="A394" s="7"/>
       <c r="B394" s="8"/>
       <c r="C394" s="8"/>
     </row>
-    <row r="395" spans="1:3">
+    <row r="395" ht="14.4" spans="1:3">
       <c r="A395" s="7"/>
       <c r="B395" s="8" t="s">
         <v>44</v>
@@ -7344,17 +7337,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
+    <row r="396" ht="14.4" spans="1:3">
       <c r="A396" s="7"/>
       <c r="B396" s="8"/>
       <c r="C396" s="8"/>
     </row>
-    <row r="397" spans="1:3">
+    <row r="397" ht="14.4" spans="1:3">
       <c r="A397" s="7"/>
       <c r="B397" s="8"/>
       <c r="C397" s="8"/>
     </row>
-    <row r="398" spans="1:3">
+    <row r="398" ht="14.4" spans="1:3">
       <c r="A398" s="7"/>
       <c r="B398" s="8" t="s">
         <v>218</v>
@@ -7363,17 +7356,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
+    <row r="399" ht="14.4" spans="1:3">
       <c r="A399" s="7"/>
       <c r="B399" s="8"/>
       <c r="C399" s="8"/>
     </row>
-    <row r="400" spans="1:3">
+    <row r="400" ht="14.4" spans="1:3">
       <c r="A400" s="7"/>
       <c r="B400" s="8"/>
       <c r="C400" s="8"/>
     </row>
-    <row r="401" spans="1:3">
+    <row r="401" ht="14.4" spans="1:3">
       <c r="A401" s="7"/>
       <c r="B401" s="8" t="s">
         <v>219</v>
@@ -7382,49 +7375,49 @@
         <v>217</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
+    <row r="402" ht="14.4" spans="1:3">
       <c r="A402" s="7"/>
       <c r="B402" s="8"/>
       <c r="C402" s="8"/>
     </row>
-    <row r="403" spans="1:3">
+    <row r="403" ht="14.4" spans="1:3">
       <c r="A403" s="7" t="s">
         <v>220</v>
       </c>
       <c r="B403" s="8"/>
       <c r="C403" s="8"/>
     </row>
-    <row r="404" spans="1:3">
+    <row r="404" ht="14.4" spans="1:3">
       <c r="A404" s="7"/>
       <c r="B404" s="8"/>
       <c r="C404" s="8"/>
     </row>
-    <row r="405" spans="1:3">
+    <row r="405" ht="14.4" spans="1:3">
       <c r="A405" s="7"/>
       <c r="B405" s="8"/>
       <c r="C405" s="8"/>
     </row>
-    <row r="406" spans="1:3">
+    <row r="406" ht="14.4" spans="1:3">
       <c r="A406" s="7"/>
       <c r="B406" s="8"/>
       <c r="C406" s="8"/>
     </row>
-    <row r="407" spans="1:3">
+    <row r="407" ht="14.4" spans="1:3">
       <c r="A407" s="7"/>
       <c r="B407" s="8"/>
       <c r="C407" s="8"/>
     </row>
-    <row r="408" spans="1:3">
+    <row r="408" ht="14.4" spans="1:3">
       <c r="A408" s="7"/>
       <c r="B408" s="8"/>
       <c r="C408" s="8"/>
     </row>
-    <row r="409" spans="1:3">
+    <row r="409" ht="14.4" spans="1:3">
       <c r="A409" s="7"/>
       <c r="B409" s="8"/>
       <c r="C409" s="8"/>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" ht="14.4" spans="1:3">
       <c r="A410" s="7" t="s">
         <v>221</v>
       </c>
@@ -7435,17 +7428,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
+    <row r="411" ht="14.4" spans="1:3">
       <c r="A411" s="7"/>
       <c r="B411" s="8"/>
       <c r="C411" s="8"/>
     </row>
-    <row r="412" spans="1:3">
+    <row r="412" ht="14.4" spans="1:3">
       <c r="A412" s="7"/>
       <c r="B412" s="8"/>
       <c r="C412" s="8"/>
     </row>
-    <row r="413" spans="1:3">
+    <row r="413" ht="14.4" spans="1:3">
       <c r="A413" s="7"/>
       <c r="B413" s="8" t="s">
         <v>151</v>
@@ -7454,17 +7447,17 @@
         <v>222</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
+    <row r="414" ht="14.4" spans="1:3">
       <c r="A414" s="7"/>
       <c r="B414" s="8"/>
       <c r="C414" s="8"/>
     </row>
-    <row r="415" spans="1:3">
+    <row r="415" ht="14.4" spans="1:3">
       <c r="A415" s="7"/>
       <c r="B415" s="8"/>
       <c r="C415" s="8"/>
     </row>
-    <row r="416" spans="1:3">
+    <row r="416" ht="14.4" spans="1:3">
       <c r="A416" s="7"/>
       <c r="B416" s="8" t="s">
         <v>223</v>
@@ -7473,12 +7466,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
+    <row r="417" ht="14.4" spans="1:3">
       <c r="A417" s="7"/>
       <c r="B417" s="8"/>
       <c r="C417" s="8"/>
     </row>
-    <row r="418" spans="1:3">
+    <row r="418" ht="14.4" spans="1:3">
       <c r="A418" s="7"/>
       <c r="B418" s="8" t="s">
         <v>174</v>
@@ -7487,12 +7480,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
+    <row r="419" ht="14.4" spans="1:3">
       <c r="A419" s="7"/>
       <c r="B419" s="8"/>
       <c r="C419" s="8"/>
     </row>
-    <row r="420" spans="1:3">
+    <row r="420" ht="14.4" spans="1:3">
       <c r="A420" s="7"/>
       <c r="B420" s="8" t="s">
         <v>225</v>
@@ -7501,12 +7494,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
+    <row r="421" ht="14.4" spans="1:3">
       <c r="A421" s="7"/>
       <c r="B421" s="8"/>
       <c r="C421" s="8"/>
     </row>
-    <row r="422" spans="1:3">
+    <row r="422" ht="14.4" spans="1:3">
       <c r="A422" s="7"/>
       <c r="B422" s="8" t="s">
         <v>140</v>
@@ -7515,39 +7508,39 @@
         <v>227</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
+    <row r="423" ht="14.4" spans="1:3">
       <c r="A423" s="7"/>
       <c r="B423" s="8"/>
       <c r="C423" s="8"/>
     </row>
-    <row r="424" spans="1:3">
+    <row r="424" ht="14.4" spans="1:3">
       <c r="A424" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B424" s="8"/>
       <c r="C424" s="8"/>
     </row>
-    <row r="425" spans="1:3">
+    <row r="425" ht="14.4" spans="1:3">
       <c r="A425" s="7"/>
       <c r="B425" s="8"/>
       <c r="C425" s="8"/>
     </row>
-    <row r="426" spans="1:3">
+    <row r="426" ht="14.4" spans="1:3">
       <c r="A426" s="7"/>
       <c r="B426" s="8"/>
       <c r="C426" s="8"/>
     </row>
-    <row r="427" spans="1:3">
+    <row r="427" ht="14.4" spans="1:3">
       <c r="A427" s="7"/>
       <c r="B427" s="8"/>
       <c r="C427" s="8"/>
     </row>
-    <row r="428" spans="1:3">
+    <row r="428" ht="14.4" spans="1:3">
       <c r="A428" s="7"/>
       <c r="B428" s="8"/>
       <c r="C428" s="8"/>
     </row>
-    <row r="429" spans="1:3">
+    <row r="429" ht="14.4" spans="1:3">
       <c r="A429" s="7" t="s">
         <v>229</v>
       </c>
@@ -7558,22 +7551,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="430" spans="1:3">
+    <row r="430" ht="14.4" spans="1:3">
       <c r="A430" s="7"/>
       <c r="B430" s="8"/>
       <c r="C430" s="8"/>
     </row>
-    <row r="431" spans="1:3">
+    <row r="431" ht="14.4" spans="1:3">
       <c r="A431" s="7"/>
       <c r="B431" s="8"/>
       <c r="C431" s="8"/>
     </row>
-    <row r="432" spans="1:3">
+    <row r="432" ht="14.4" spans="1:3">
       <c r="A432" s="7"/>
       <c r="B432" s="8"/>
       <c r="C432" s="8"/>
     </row>
-    <row r="433" spans="1:3">
+    <row r="433" ht="14.4" spans="1:3">
       <c r="A433" s="7"/>
       <c r="B433" s="8" t="s">
         <v>65</v>
@@ -7582,22 +7575,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
+    <row r="434" ht="14.4" spans="1:3">
       <c r="A434" s="7"/>
       <c r="B434" s="8"/>
       <c r="C434" s="8"/>
     </row>
-    <row r="435" spans="1:3">
+    <row r="435" ht="14.4" spans="1:3">
       <c r="A435" s="7"/>
       <c r="B435" s="8"/>
       <c r="C435" s="8"/>
     </row>
-    <row r="436" spans="1:3">
+    <row r="436" ht="14.4" spans="1:3">
       <c r="A436" s="7"/>
       <c r="B436" s="8"/>
       <c r="C436" s="8"/>
     </row>
-    <row r="437" spans="1:3">
+    <row r="437" ht="14.4" spans="1:3">
       <c r="A437" s="7"/>
       <c r="B437" s="8" t="s">
         <v>232</v>
@@ -7606,22 +7599,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
+    <row r="438" ht="14.4" spans="1:3">
       <c r="A438" s="7"/>
       <c r="B438" s="8"/>
       <c r="C438" s="8"/>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" ht="14.4" spans="1:3">
       <c r="A439" s="7"/>
       <c r="B439" s="8"/>
       <c r="C439" s="8"/>
     </row>
-    <row r="440" spans="1:3">
+    <row r="440" ht="14.4" spans="1:3">
       <c r="A440" s="7"/>
       <c r="B440" s="8"/>
       <c r="C440" s="8"/>
     </row>
-    <row r="441" spans="1:3">
+    <row r="441" ht="14.4" spans="1:3">
       <c r="A441" s="7"/>
       <c r="B441" s="8" t="s">
         <v>125</v>
@@ -7630,17 +7623,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="442" spans="1:3">
+    <row r="442" ht="14.4" spans="1:3">
       <c r="A442" s="7"/>
       <c r="B442" s="8"/>
       <c r="C442" s="8"/>
     </row>
-    <row r="443" spans="1:3">
+    <row r="443" ht="14.4" spans="1:3">
       <c r="A443" s="7"/>
       <c r="B443" s="8"/>
       <c r="C443" s="8"/>
     </row>
-    <row r="444" spans="1:3">
+    <row r="444" ht="14.4" spans="1:3">
       <c r="A444" s="7"/>
       <c r="B444" s="8" t="s">
         <v>124</v>
@@ -7649,17 +7642,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
+    <row r="445" ht="14.4" spans="1:3">
       <c r="A445" s="7"/>
       <c r="B445" s="8"/>
       <c r="C445" s="8"/>
     </row>
-    <row r="446" spans="1:3">
+    <row r="446" ht="14.4" spans="1:3">
       <c r="A446" s="7"/>
       <c r="B446" s="8"/>
       <c r="C446" s="8"/>
     </row>
-    <row r="447" spans="1:3">
+    <row r="447" ht="14.4" spans="1:3">
       <c r="A447" s="7"/>
       <c r="B447" s="8" t="s">
         <v>136</v>
@@ -7668,17 +7661,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
+    <row r="448" ht="14.4" spans="1:3">
       <c r="A448" s="7"/>
       <c r="B448" s="8"/>
       <c r="C448" s="8"/>
     </row>
-    <row r="449" spans="1:3">
+    <row r="449" ht="14.4" spans="1:3">
       <c r="A449" s="7"/>
       <c r="B449" s="8"/>
       <c r="C449" s="8"/>
     </row>
-    <row r="450" spans="1:3">
+    <row r="450" ht="14.4" spans="1:3">
       <c r="A450" s="7"/>
       <c r="B450" s="8" t="s">
         <v>234</v>
@@ -7687,17 +7680,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
+    <row r="451" ht="14.4" spans="1:3">
       <c r="A451" s="7"/>
       <c r="B451" s="8"/>
       <c r="C451" s="8"/>
     </row>
-    <row r="452" spans="1:3">
+    <row r="452" ht="14.4" spans="1:3">
       <c r="A452" s="7"/>
       <c r="B452" s="8"/>
       <c r="C452" s="8"/>
     </row>
-    <row r="453" spans="1:3">
+    <row r="453" ht="14.4" spans="1:3">
       <c r="A453" s="7"/>
       <c r="B453" s="8" t="s">
         <v>235</v>
@@ -7706,17 +7699,17 @@
         <v>233</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
+    <row r="454" ht="14.4" spans="1:3">
       <c r="A454" s="7"/>
       <c r="B454" s="8"/>
       <c r="C454" s="8"/>
     </row>
-    <row r="455" spans="1:3">
+    <row r="455" ht="14.4" spans="1:3">
       <c r="A455" s="7"/>
       <c r="B455" s="8"/>
       <c r="C455" s="8"/>
     </row>
-    <row r="456" spans="1:3">
+    <row r="456" ht="14.4" spans="1:3">
       <c r="A456" s="7" t="s">
         <v>236</v>
       </c>
@@ -7727,12 +7720,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
+    <row r="457" ht="14.4" spans="1:3">
       <c r="A457" s="7"/>
       <c r="B457" s="8"/>
       <c r="C457" s="8"/>
     </row>
-    <row r="458" spans="1:3">
+    <row r="458" ht="14.4" spans="1:3">
       <c r="A458" s="7"/>
       <c r="B458" s="8" t="s">
         <v>239</v>
@@ -7741,7 +7734,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
+    <row r="459" ht="14.4" spans="1:3">
       <c r="A459" s="7"/>
       <c r="B459" s="8"/>
       <c r="C459" s="8"/>
@@ -7901,7 +7894,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
+    <row r="477" ht="14.4" spans="1:3">
       <c r="A477" s="7" t="s">
         <v>262</v>
       </c>
@@ -7912,52 +7905,52 @@
         <v>263</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
+    <row r="478" ht="14.4" spans="1:3">
       <c r="A478" s="7"/>
       <c r="B478" s="8"/>
       <c r="C478" s="8"/>
     </row>
-    <row r="479" spans="1:3">
+    <row r="479" ht="14.4" spans="1:3">
       <c r="A479" s="7"/>
       <c r="B479" s="8"/>
       <c r="C479" s="8"/>
     </row>
-    <row r="480" spans="1:3">
+    <row r="480" ht="14.4" spans="1:3">
       <c r="A480" s="7"/>
       <c r="B480" s="8"/>
       <c r="C480" s="8"/>
     </row>
-    <row r="481" spans="1:3">
+    <row r="481" ht="14.4" spans="1:3">
       <c r="A481" s="7"/>
       <c r="B481" s="8"/>
       <c r="C481" s="8"/>
     </row>
-    <row r="482" spans="1:3">
+    <row r="482" ht="14.4" spans="1:3">
       <c r="A482" s="7"/>
       <c r="B482" s="8"/>
       <c r="C482" s="8"/>
     </row>
-    <row r="483" spans="1:3">
+    <row r="483" ht="14.4" spans="1:3">
       <c r="A483" s="7"/>
       <c r="B483" s="8"/>
       <c r="C483" s="8"/>
     </row>
-    <row r="484" spans="1:3">
+    <row r="484" ht="14.4" spans="1:3">
       <c r="A484" s="7"/>
       <c r="B484" s="8"/>
       <c r="C484" s="8"/>
     </row>
-    <row r="485" spans="1:3">
+    <row r="485" ht="14.4" spans="1:3">
       <c r="A485" s="7"/>
       <c r="B485" s="8"/>
       <c r="C485" s="8"/>
     </row>
-    <row r="486" spans="1:3">
+    <row r="486" ht="14.4" spans="1:3">
       <c r="A486" s="7"/>
       <c r="B486" s="8"/>
       <c r="C486" s="8"/>
     </row>
-    <row r="487" spans="1:3">
+    <row r="487" ht="14.4" spans="1:3">
       <c r="A487" s="7"/>
       <c r="B487" s="8"/>
       <c r="C487" s="8"/>
@@ -8499,7 +8492,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="547" spans="1:3">
+    <row r="547" ht="14.4" spans="1:3">
       <c r="A547" s="7" t="s">
         <v>329</v>
       </c>
@@ -8510,12 +8503,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="548" spans="1:3">
+    <row r="548" ht="14.4" spans="1:3">
       <c r="A548" s="7"/>
       <c r="B548" s="8"/>
       <c r="C548" s="8"/>
     </row>
-    <row r="549" spans="1:3">
+    <row r="549" ht="14.4" spans="1:3">
       <c r="A549" s="7"/>
       <c r="B549" s="8" t="s">
         <v>318</v>
@@ -8524,12 +8517,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="550" spans="1:3">
+    <row r="550" ht="14.4" spans="1:3">
       <c r="A550" s="7"/>
       <c r="B550" s="8"/>
       <c r="C550" s="8"/>
     </row>
-    <row r="551" spans="1:3">
+    <row r="551" ht="14.4" spans="1:3">
       <c r="A551" s="7"/>
       <c r="B551" s="8" t="s">
         <v>289</v>
@@ -8538,12 +8531,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="552" spans="1:3">
+    <row r="552" ht="14.4" spans="1:3">
       <c r="A552" s="7"/>
       <c r="B552" s="8"/>
       <c r="C552" s="8"/>
     </row>
-    <row r="553" spans="1:3">
+    <row r="553" ht="14.4" spans="1:3">
       <c r="A553" s="7"/>
       <c r="B553" s="8" t="s">
         <v>332</v>
@@ -8552,7 +8545,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="554" spans="1:3">
+    <row r="554" ht="14.4" spans="1:3">
       <c r="A554" s="7"/>
       <c r="B554" s="8"/>
       <c r="C554" s="8"/>
@@ -9225,109 +9218,109 @@
         <v>424</v>
       </c>
     </row>
-    <row r="629" spans="1:3">
+    <row r="629" ht="14.4" spans="1:3">
       <c r="A629" s="7" t="s">
         <v>425</v>
       </c>
       <c r="B629" s="8"/>
       <c r="C629" s="8"/>
     </row>
-    <row r="630" spans="1:3">
+    <row r="630" ht="14.4" spans="1:3">
       <c r="A630" s="7"/>
       <c r="B630" s="8"/>
       <c r="C630" s="8"/>
     </row>
-    <row r="631" spans="1:3">
+    <row r="631" ht="14.4" spans="1:3">
       <c r="A631" s="7"/>
       <c r="B631" s="8"/>
       <c r="C631" s="8"/>
     </row>
-    <row r="632" spans="1:3">
+    <row r="632" ht="14.4" spans="1:3">
       <c r="A632" s="7"/>
       <c r="B632" s="8"/>
       <c r="C632" s="8"/>
     </row>
-    <row r="633" spans="1:3">
+    <row r="633" ht="14.4" spans="1:3">
       <c r="A633" s="7"/>
       <c r="B633" s="8"/>
       <c r="C633" s="8"/>
     </row>
-    <row r="634" spans="1:3">
+    <row r="634" ht="14.4" spans="1:3">
       <c r="A634" s="7"/>
       <c r="B634" s="8"/>
       <c r="C634" s="8"/>
     </row>
-    <row r="635" spans="1:3">
+    <row r="635" ht="14.4" spans="1:3">
       <c r="A635" s="7"/>
       <c r="B635" s="8"/>
       <c r="C635" s="8"/>
     </row>
-    <row r="636" spans="1:3">
+    <row r="636" ht="14.4" spans="1:3">
       <c r="A636" s="7"/>
       <c r="B636" s="8"/>
       <c r="C636" s="8"/>
     </row>
-    <row r="637" spans="1:3">
+    <row r="637" ht="14.4" spans="1:3">
       <c r="A637" s="7"/>
       <c r="B637" s="8"/>
       <c r="C637" s="8"/>
     </row>
-    <row r="638" spans="1:3">
+    <row r="638" ht="14.4" spans="1:3">
       <c r="A638" s="7"/>
       <c r="B638" s="8"/>
       <c r="C638" s="8"/>
     </row>
-    <row r="639" spans="1:3">
+    <row r="639" ht="14.4" spans="1:3">
       <c r="A639" s="7"/>
       <c r="B639" s="8"/>
       <c r="C639" s="8"/>
     </row>
-    <row r="640" spans="1:3">
+    <row r="640" ht="14.4" spans="1:3">
       <c r="A640" s="7"/>
       <c r="B640" s="8"/>
       <c r="C640" s="8"/>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" ht="14.4" spans="1:3">
       <c r="A641" s="7"/>
       <c r="B641" s="8"/>
       <c r="C641" s="8"/>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" ht="14.4" spans="1:3">
       <c r="A642" s="7"/>
       <c r="B642" s="8"/>
       <c r="C642" s="8"/>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" ht="14.4" spans="1:3">
       <c r="A643" s="7"/>
       <c r="B643" s="8"/>
       <c r="C643" s="8"/>
     </row>
-    <row r="644" spans="1:3">
+    <row r="644" ht="14.4" spans="1:3">
       <c r="A644" s="7"/>
       <c r="B644" s="8"/>
       <c r="C644" s="8"/>
     </row>
-    <row r="645" spans="1:3">
+    <row r="645" ht="14.4" spans="1:3">
       <c r="A645" s="7"/>
       <c r="B645" s="8"/>
       <c r="C645" s="8"/>
     </row>
-    <row r="646" spans="1:3">
+    <row r="646" ht="14.4" spans="1:3">
       <c r="A646" s="7"/>
       <c r="B646" s="8"/>
       <c r="C646" s="8"/>
     </row>
-    <row r="647" spans="1:3">
+    <row r="647" ht="14.4" spans="1:3">
       <c r="A647" s="7"/>
       <c r="B647" s="8"/>
       <c r="C647" s="8"/>
     </row>
-    <row r="648" spans="1:3">
+    <row r="648" ht="14.4" spans="1:3">
       <c r="A648" s="7"/>
       <c r="B648" s="8"/>
       <c r="C648" s="8"/>
     </row>
-    <row r="649" spans="1:3">
+    <row r="649" ht="14.4" spans="1:3">
       <c r="A649" s="7"/>
       <c r="B649" s="8"/>
       <c r="C649" s="8"/>
@@ -9559,7 +9552,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
+    <row r="675" ht="14.4" spans="1:3">
       <c r="A675" s="7" t="s">
         <v>458</v>
       </c>
@@ -9570,12 +9563,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
+    <row r="676" ht="14.4" spans="1:3">
       <c r="A676" s="7"/>
       <c r="B676" s="8"/>
       <c r="C676" s="8"/>
     </row>
-    <row r="677" spans="1:3">
+    <row r="677" ht="14.4" spans="1:3">
       <c r="A677" s="7"/>
       <c r="B677" s="8" t="s">
         <v>460</v>
@@ -9584,12 +9577,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
+    <row r="678" ht="14.4" spans="1:3">
       <c r="A678" s="7"/>
       <c r="B678" s="8"/>
       <c r="C678" s="8"/>
     </row>
-    <row r="679" spans="1:3">
+    <row r="679" ht="14.4" spans="1:3">
       <c r="A679" s="7"/>
       <c r="B679" s="8" t="s">
         <v>139</v>
@@ -9598,7 +9591,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
+    <row r="680" ht="14.4" spans="1:3">
       <c r="A680" s="7"/>
       <c r="B680" s="8"/>
       <c r="C680" s="8"/>
@@ -9756,7 +9749,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
+    <row r="698" ht="14.4" spans="1:3">
       <c r="A698" s="7" t="s">
         <v>472</v>
       </c>
@@ -9767,12 +9760,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
+    <row r="699" ht="14.4" spans="1:3">
       <c r="A699" s="7"/>
       <c r="B699" s="8"/>
       <c r="C699" s="8"/>
     </row>
-    <row r="700" spans="1:3">
+    <row r="700" ht="14.4" spans="1:3">
       <c r="A700" s="7"/>
       <c r="B700" s="8" t="s">
         <v>198</v>
@@ -9781,7 +9774,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
+    <row r="701" ht="14.4" spans="1:3">
       <c r="A701" s="7"/>
       <c r="B701" s="8"/>
       <c r="C701" s="8"/>
@@ -10011,7 +10004,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
+    <row r="727" ht="14.4" spans="1:3">
       <c r="A727" s="7" t="s">
         <v>488</v>
       </c>
@@ -10022,17 +10015,17 @@
         <v>489</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
+    <row r="728" ht="14.4" spans="1:3">
       <c r="A728" s="7"/>
       <c r="B728" s="14"/>
       <c r="C728" s="8"/>
     </row>
-    <row r="729" spans="1:3">
+    <row r="729" ht="14.4" spans="1:3">
       <c r="A729" s="7"/>
       <c r="B729" s="14"/>
       <c r="C729" s="8"/>
     </row>
-    <row r="730" spans="1:3">
+    <row r="730" ht="14.4" spans="1:3">
       <c r="A730" s="7"/>
       <c r="B730" s="14" t="s">
         <v>490</v>
@@ -10041,17 +10034,17 @@
         <v>491</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
+    <row r="731" ht="14.4" spans="1:3">
       <c r="A731" s="7"/>
       <c r="B731" s="14"/>
       <c r="C731" s="8"/>
     </row>
-    <row r="732" spans="1:3">
+    <row r="732" ht="14.4" spans="1:3">
       <c r="A732" s="7"/>
       <c r="B732" s="14"/>
       <c r="C732" s="8"/>
     </row>
-    <row r="733" spans="1:3">
+    <row r="733" ht="14.4" spans="1:3">
       <c r="A733" s="7"/>
       <c r="B733" s="14" t="s">
         <v>186</v>
@@ -10060,17 +10053,17 @@
         <v>491</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
+    <row r="734" ht="14.4" spans="1:3">
       <c r="A734" s="7"/>
       <c r="B734" s="14"/>
       <c r="C734" s="8"/>
     </row>
-    <row r="735" spans="1:3">
+    <row r="735" ht="14.4" spans="1:3">
       <c r="A735" s="7"/>
       <c r="B735" s="14"/>
       <c r="C735" s="8"/>
     </row>
-    <row r="736" spans="1:3">
+    <row r="736" ht="14.4" spans="1:3">
       <c r="A736" s="7"/>
       <c r="B736" s="14" t="s">
         <v>87</v>
@@ -10079,17 +10072,17 @@
         <v>491</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
+    <row r="737" ht="14.4" spans="1:3">
       <c r="A737" s="7"/>
       <c r="B737" s="14"/>
       <c r="C737" s="8"/>
     </row>
-    <row r="738" spans="1:3">
+    <row r="738" ht="14.4" spans="1:3">
       <c r="A738" s="7"/>
       <c r="B738" s="14"/>
       <c r="C738" s="8"/>
     </row>
-    <row r="739" spans="1:3">
+    <row r="739" ht="14.4" spans="1:3">
       <c r="A739" s="7"/>
       <c r="B739" s="14" t="s">
         <v>187</v>
@@ -10098,12 +10091,12 @@
         <v>491</v>
       </c>
     </row>
-    <row r="740" spans="1:3">
+    <row r="740" ht="14.4" spans="1:3">
       <c r="A740" s="7"/>
       <c r="B740" s="14"/>
       <c r="C740" s="8"/>
     </row>
-    <row r="741" spans="1:3">
+    <row r="741" ht="14.4" spans="1:3">
       <c r="A741" s="7"/>
       <c r="B741" s="14" t="s">
         <v>183</v>
@@ -10112,12 +10105,12 @@
         <v>492</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
+    <row r="742" ht="14.4" spans="1:3">
       <c r="A742" s="7"/>
       <c r="B742" s="14"/>
       <c r="C742" s="8"/>
     </row>
-    <row r="743" spans="1:3">
+    <row r="743" ht="14.4" spans="1:3">
       <c r="A743" s="7"/>
       <c r="B743" s="14" t="s">
         <v>493</v>
@@ -10126,7 +10119,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
+    <row r="744" ht="14.4" spans="1:3">
       <c r="A744" s="7"/>
       <c r="B744" s="14"/>
       <c r="C744" s="8"/>
@@ -10286,7 +10279,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="762" spans="1:3">
+    <row r="762" ht="14.4" spans="1:3">
       <c r="A762" s="7" t="s">
         <v>511</v>
       </c>
@@ -10297,17 +10290,17 @@
         <v>512</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
+    <row r="763" ht="14.4" spans="1:3">
       <c r="A763" s="7"/>
       <c r="B763" s="14"/>
       <c r="C763" s="8"/>
     </row>
-    <row r="764" spans="1:3">
+    <row r="764" ht="14.4" spans="1:3">
       <c r="A764" s="7"/>
       <c r="B764" s="14"/>
       <c r="C764" s="8"/>
     </row>
-    <row r="765" spans="1:3">
+    <row r="765" ht="14.4" spans="1:3">
       <c r="A765" s="7"/>
       <c r="B765" s="14" t="s">
         <v>513</v>
@@ -10316,17 +10309,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
+    <row r="766" ht="14.4" spans="1:3">
       <c r="A766" s="7"/>
       <c r="B766" s="14"/>
       <c r="C766" s="8"/>
     </row>
-    <row r="767" spans="1:3">
+    <row r="767" ht="14.4" spans="1:3">
       <c r="A767" s="7"/>
       <c r="B767" s="14"/>
       <c r="C767" s="8"/>
     </row>
-    <row r="768" spans="1:3">
+    <row r="768" ht="14.4" spans="1:3">
       <c r="A768" s="7"/>
       <c r="B768" s="14" t="s">
         <v>156</v>
@@ -10335,12 +10328,12 @@
         <v>514</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
+    <row r="769" ht="14.4" spans="1:3">
       <c r="A769" s="7"/>
       <c r="B769" s="14"/>
       <c r="C769" s="8"/>
     </row>
-    <row r="770" spans="1:3">
+    <row r="770" ht="14.4" spans="1:3">
       <c r="A770" s="7"/>
       <c r="B770" s="14"/>
       <c r="C770" s="8"/>
@@ -10410,7 +10403,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="778" spans="1:3">
+    <row r="778" ht="14.4" spans="1:3">
       <c r="A778" s="7"/>
       <c r="B778" s="14" t="s">
         <v>519</v>
@@ -10419,7 +10412,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
+    <row r="779" ht="14.4" spans="1:3">
       <c r="A779" s="7"/>
       <c r="B779" s="14"/>
       <c r="C779" s="8"/>
@@ -10833,7 +10826,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
+    <row r="825" ht="14.4" spans="1:3">
       <c r="A825" s="7" t="s">
         <v>545</v>
       </c>
@@ -10844,72 +10837,72 @@
         <v>547</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
+    <row r="826" ht="14.4" spans="1:3">
       <c r="A826" s="7"/>
       <c r="B826" s="14"/>
       <c r="C826" s="8"/>
     </row>
-    <row r="827" spans="1:3">
+    <row r="827" ht="14.4" spans="1:3">
       <c r="A827" s="7"/>
       <c r="B827" s="14"/>
       <c r="C827" s="8"/>
     </row>
-    <row r="828" spans="1:3">
+    <row r="828" ht="14.4" spans="1:3">
       <c r="A828" s="7"/>
       <c r="B828" s="14"/>
       <c r="C828" s="8"/>
     </row>
-    <row r="829" spans="1:3">
+    <row r="829" ht="14.4" spans="1:3">
       <c r="A829" s="7"/>
       <c r="B829" s="14"/>
       <c r="C829" s="8"/>
     </row>
-    <row r="830" spans="1:3">
+    <row r="830" ht="14.4" spans="1:3">
       <c r="A830" s="7"/>
       <c r="B830" s="14"/>
       <c r="C830" s="8"/>
     </row>
-    <row r="831" spans="1:3">
+    <row r="831" ht="14.4" spans="1:3">
       <c r="A831" s="7"/>
       <c r="B831" s="14"/>
       <c r="C831" s="8"/>
     </row>
-    <row r="832" spans="1:3">
+    <row r="832" ht="14.4" spans="1:3">
       <c r="A832" s="7"/>
       <c r="B832" s="14"/>
       <c r="C832" s="8"/>
     </row>
-    <row r="833" spans="1:3">
+    <row r="833" ht="14.4" spans="1:3">
       <c r="A833" s="7"/>
       <c r="B833" s="14"/>
       <c r="C833" s="8"/>
     </row>
-    <row r="834" spans="1:3">
+    <row r="834" ht="14.4" spans="1:3">
       <c r="A834" s="7"/>
       <c r="B834" s="14"/>
       <c r="C834" s="8"/>
     </row>
-    <row r="835" spans="1:3">
+    <row r="835" ht="14.4" spans="1:3">
       <c r="A835" s="7"/>
       <c r="B835" s="14"/>
       <c r="C835" s="8"/>
     </row>
-    <row r="836" spans="1:3">
+    <row r="836" ht="14.4" spans="1:3">
       <c r="A836" s="7"/>
       <c r="B836" s="14"/>
       <c r="C836" s="8"/>
     </row>
-    <row r="837" spans="1:3">
+    <row r="837" ht="14.4" spans="1:3">
       <c r="A837" s="7"/>
       <c r="B837" s="14"/>
       <c r="C837" s="8"/>
     </row>
-    <row r="838" spans="1:3">
+    <row r="838" ht="14.4" spans="1:3">
       <c r="A838" s="7"/>
       <c r="B838" s="14"/>
       <c r="C838" s="8"/>
     </row>
-    <row r="839" spans="1:3">
+    <row r="839" ht="14.4" spans="1:3">
       <c r="A839" s="7"/>
       <c r="B839" s="14"/>
       <c r="C839" s="8"/>
@@ -11271,7 +11264,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="879" spans="1:3">
+    <row r="879" ht="14.4" spans="1:3">
       <c r="A879" s="7" t="s">
         <v>583</v>
       </c>
@@ -11282,12 +11275,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="880" spans="1:3">
+    <row r="880" ht="14.4" spans="1:3">
       <c r="A880" s="7"/>
       <c r="B880" s="8"/>
       <c r="C880" s="8"/>
     </row>
-    <row r="881" spans="1:3">
+    <row r="881" ht="14.4" spans="1:3">
       <c r="A881" s="7"/>
       <c r="B881" s="8" t="s">
         <v>275</v>
@@ -11296,12 +11289,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="882" spans="1:3">
+    <row r="882" ht="14.4" spans="1:3">
       <c r="A882" s="7"/>
       <c r="B882" s="8"/>
       <c r="C882" s="8"/>
     </row>
-    <row r="883" spans="1:3">
+    <row r="883" ht="14.4" spans="1:3">
       <c r="A883" s="7"/>
       <c r="B883" s="8" t="s">
         <v>140</v>
@@ -11310,12 +11303,12 @@
         <v>584</v>
       </c>
     </row>
-    <row r="884" spans="1:3">
+    <row r="884" ht="14.4" spans="1:3">
       <c r="A884" s="7"/>
       <c r="B884" s="8"/>
       <c r="C884" s="8"/>
     </row>
-    <row r="885" spans="1:3">
+    <row r="885" ht="14.4" spans="1:3">
       <c r="A885" s="7" t="s">
         <v>585</v>
       </c>
@@ -11326,12 +11319,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="886" spans="1:3">
+    <row r="886" ht="14.4" spans="1:3">
       <c r="A886" s="7"/>
       <c r="B886" s="8"/>
       <c r="C886" s="8"/>
     </row>
-    <row r="887" spans="1:3">
+    <row r="887" ht="14.4" spans="1:3">
       <c r="A887" s="7"/>
       <c r="B887" s="8" t="s">
         <v>463</v>
@@ -11340,12 +11333,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="888" spans="1:3">
+    <row r="888" ht="14.4" spans="1:3">
       <c r="A888" s="7"/>
       <c r="B888" s="8"/>
       <c r="C888" s="8"/>
     </row>
-    <row r="889" spans="1:3">
+    <row r="889" ht="14.4" spans="1:3">
       <c r="A889" s="7"/>
       <c r="B889" s="8" t="s">
         <v>587</v>
@@ -11354,12 +11347,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="890" spans="1:3">
+    <row r="890" ht="14.4" spans="1:3">
       <c r="A890" s="7"/>
       <c r="B890" s="8"/>
       <c r="C890" s="8"/>
     </row>
-    <row r="891" spans="1:3">
+    <row r="891" ht="14.4" spans="1:3">
       <c r="A891" s="7"/>
       <c r="B891" s="8" t="s">
         <v>588</v>
@@ -11368,12 +11361,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="892" spans="1:3">
+    <row r="892" ht="14.4" spans="1:3">
       <c r="A892" s="7"/>
       <c r="B892" s="8"/>
       <c r="C892" s="8"/>
     </row>
-    <row r="893" spans="1:3">
+    <row r="893" ht="14.4" spans="1:3">
       <c r="A893" s="7"/>
       <c r="B893" s="8" t="s">
         <v>177</v>
@@ -11382,12 +11375,12 @@
         <v>589</v>
       </c>
     </row>
-    <row r="894" spans="1:3">
+    <row r="894" ht="14.4" spans="1:3">
       <c r="A894" s="7"/>
       <c r="B894" s="8"/>
       <c r="C894" s="8"/>
     </row>
-    <row r="895" spans="1:3">
+    <row r="895" ht="14.4" spans="1:3">
       <c r="A895" s="7" t="s">
         <v>590</v>
       </c>
@@ -11398,27 +11391,27 @@
         <v>592</v>
       </c>
     </row>
-    <row r="896" spans="1:3">
+    <row r="896" ht="14.4" spans="1:3">
       <c r="A896" s="7"/>
       <c r="B896" s="8"/>
       <c r="C896" s="8"/>
     </row>
-    <row r="897" spans="1:3">
+    <row r="897" ht="14.4" spans="1:3">
       <c r="A897" s="7"/>
       <c r="B897" s="8"/>
       <c r="C897" s="8"/>
     </row>
-    <row r="898" spans="1:3">
+    <row r="898" ht="14.4" spans="1:3">
       <c r="A898" s="7"/>
       <c r="B898" s="8"/>
       <c r="C898" s="8"/>
     </row>
-    <row r="899" spans="1:3">
+    <row r="899" ht="14.4" spans="1:3">
       <c r="A899" s="7"/>
       <c r="B899" s="8"/>
       <c r="C899" s="8"/>
     </row>
-    <row r="900" spans="1:3">
+    <row r="900" ht="14.4" spans="1:3">
       <c r="A900" s="7"/>
       <c r="B900" s="8" t="s">
         <v>564</v>
@@ -11427,22 +11420,22 @@
         <v>593</v>
       </c>
     </row>
-    <row r="901" spans="1:3">
+    <row r="901" ht="14.4" spans="1:3">
       <c r="A901" s="7"/>
       <c r="B901" s="8"/>
       <c r="C901" s="8"/>
     </row>
-    <row r="902" spans="1:3">
+    <row r="902" ht="14.4" spans="1:3">
       <c r="A902" s="7"/>
       <c r="B902" s="8"/>
       <c r="C902" s="8"/>
     </row>
-    <row r="903" spans="1:3">
+    <row r="903" ht="14.4" spans="1:3">
       <c r="A903" s="7"/>
       <c r="B903" s="8"/>
       <c r="C903" s="8"/>
     </row>
-    <row r="904" spans="1:3">
+    <row r="904" ht="14.4" spans="1:3">
       <c r="A904" s="7"/>
       <c r="B904" s="8"/>
       <c r="C904" s="8"/>
@@ -11629,34 +11622,34 @@
         <v>605</v>
       </c>
     </row>
-    <row r="925" spans="1:3">
+    <row r="925" ht="14.4" spans="1:3">
       <c r="A925" s="7" t="s">
         <v>606</v>
       </c>
       <c r="B925" s="8"/>
       <c r="C925" s="8"/>
     </row>
-    <row r="926" spans="1:3">
+    <row r="926" ht="14.4" spans="1:3">
       <c r="A926" s="7"/>
       <c r="B926" s="8"/>
       <c r="C926" s="8"/>
     </row>
-    <row r="927" spans="1:3">
+    <row r="927" ht="14.4" spans="1:3">
       <c r="A927" s="7"/>
       <c r="B927" s="8"/>
       <c r="C927" s="8"/>
     </row>
-    <row r="928" spans="1:3">
+    <row r="928" ht="14.4" spans="1:3">
       <c r="A928" s="7"/>
       <c r="B928" s="8"/>
       <c r="C928" s="8"/>
     </row>
-    <row r="929" spans="1:3">
+    <row r="929" ht="14.4" spans="1:3">
       <c r="A929" s="7"/>
       <c r="B929" s="8"/>
       <c r="C929" s="8"/>
     </row>
-    <row r="930" spans="1:3">
+    <row r="930" ht="14.4" spans="1:3">
       <c r="A930" s="7"/>
       <c r="B930" s="8"/>
       <c r="C930" s="8"/>
@@ -11672,7 +11665,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="932" spans="1:3">
+    <row r="932" ht="14.4" spans="1:3">
       <c r="A932" s="7"/>
       <c r="B932" s="8" t="s">
         <v>199</v>
@@ -11681,7 +11674,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="933" spans="1:3">
+    <row r="933" ht="14.4" spans="1:3">
       <c r="A933" s="7"/>
       <c r="B933" s="8"/>
       <c r="C933" s="8"/>
@@ -12032,19 +12025,19 @@
         <v>638</v>
       </c>
     </row>
-    <row r="972" spans="1:3">
+    <row r="972" ht="14.4" spans="1:3">
       <c r="A972" s="7" t="s">
         <v>639</v>
       </c>
       <c r="B972" s="8"/>
       <c r="C972" s="8"/>
     </row>
-    <row r="973" spans="1:3">
+    <row r="973" ht="14.4" spans="1:3">
       <c r="A973" s="7"/>
       <c r="B973" s="8"/>
       <c r="C973" s="8"/>
     </row>
-    <row r="974" spans="1:3">
+    <row r="974" ht="14.4" spans="1:3">
       <c r="A974" s="7"/>
       <c r="B974" s="8"/>
       <c r="C974" s="8"/>
